--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H2">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I2">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J2">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>23.00989912103951</v>
+        <v>25.07122924858966</v>
       </c>
       <c r="R2">
-        <v>23.00989912103951</v>
+        <v>225.641063237307</v>
       </c>
       <c r="S2">
-        <v>0.02307092818830492</v>
+        <v>0.0224954067410809</v>
       </c>
       <c r="T2">
-        <v>0.02307092818830492</v>
+        <v>0.02249540674108089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H3">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I3">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J3">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>111.5683609330981</v>
+        <v>112.7144117315505</v>
       </c>
       <c r="R3">
-        <v>111.5683609330981</v>
+        <v>1014.429705583955</v>
       </c>
       <c r="S3">
-        <v>0.111864273269274</v>
+        <v>0.1011341132236475</v>
       </c>
       <c r="T3">
-        <v>0.111864273269274</v>
+        <v>0.1011341132236475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H4">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I4">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J4">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>123.4870777983712</v>
+        <v>124.4541014027811</v>
       </c>
       <c r="R4">
-        <v>123.4870777983712</v>
+        <v>1120.08691262503</v>
       </c>
       <c r="S4">
-        <v>0.1238146021016167</v>
+        <v>0.1116676651109469</v>
       </c>
       <c r="T4">
-        <v>0.1238146021016167</v>
+        <v>0.1116676651109469</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H5">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I5">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J5">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>106.3248409708726</v>
+        <v>110.8665337801221</v>
       </c>
       <c r="R5">
-        <v>106.3248409708726</v>
+        <v>997.798804021099</v>
       </c>
       <c r="S5">
-        <v>0.1066068459391458</v>
+        <v>0.09947608657832072</v>
       </c>
       <c r="T5">
-        <v>0.1066068459391458</v>
+        <v>0.09947608657832072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H6">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I6">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J6">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>17.92054348274779</v>
+        <v>19.84993231520811</v>
       </c>
       <c r="R6">
-        <v>17.92054348274779</v>
+        <v>178.649390836873</v>
       </c>
       <c r="S6">
-        <v>0.01796807407155604</v>
+        <v>0.01781054677399398</v>
       </c>
       <c r="T6">
-        <v>0.01796807407155604</v>
+        <v>0.01781054677399398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H7">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I7">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J7">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>20.51819950804376</v>
+        <v>22.93645381210267</v>
       </c>
       <c r="R7">
-        <v>20.51819950804376</v>
+        <v>206.428084308924</v>
       </c>
       <c r="S7">
-        <v>0.02057261984997376</v>
+        <v>0.020579958508827</v>
       </c>
       <c r="T7">
-        <v>0.02057261984997376</v>
+        <v>0.02057995850882699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H8">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I8">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J8">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>99.48682853275042</v>
+        <v>103.1169582075622</v>
       </c>
       <c r="R8">
-        <v>99.48682853275042</v>
+        <v>928.05262386806</v>
       </c>
       <c r="S8">
-        <v>0.09975069706683697</v>
+        <v>0.09252270376462059</v>
       </c>
       <c r="T8">
-        <v>0.09975069706683697</v>
+        <v>0.09252270376462057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H9">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I9">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J9">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>110.1148894918683</v>
+        <v>113.8570319088845</v>
       </c>
       <c r="R9">
-        <v>110.1148894918683</v>
+        <v>1024.71328717996</v>
       </c>
       <c r="S9">
-        <v>0.1104069467913103</v>
+        <v>0.1021593404027711</v>
       </c>
       <c r="T9">
-        <v>0.1104069467913103</v>
+        <v>0.1021593404027711</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H10">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I10">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J10">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>94.81111969355014</v>
+        <v>101.4264241350965</v>
       </c>
       <c r="R10">
-        <v>94.81111969355014</v>
+        <v>912.8378172158681</v>
       </c>
       <c r="S10">
-        <v>0.09506258686299968</v>
+        <v>0.09100585546042693</v>
       </c>
       <c r="T10">
-        <v>0.09506258686299968</v>
+        <v>0.09100585546042692</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H11">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I11">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J11">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>15.97996082196563</v>
+        <v>18.15974203764845</v>
       </c>
       <c r="R11">
-        <v>15.97996082196563</v>
+        <v>163.437678338836</v>
       </c>
       <c r="S11">
-        <v>0.01602234441081894</v>
+        <v>0.01629400694315725</v>
       </c>
       <c r="T11">
-        <v>0.01602234441081894</v>
+        <v>0.01629400694315724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H12">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I12">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J12">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>8.996893360731276</v>
+        <v>14.869475350438</v>
       </c>
       <c r="R12">
-        <v>8.996893360731276</v>
+        <v>133.825278153942</v>
       </c>
       <c r="S12">
-        <v>0.009020755786516088</v>
+        <v>0.01334178283473658</v>
       </c>
       <c r="T12">
-        <v>0.009020755786516088</v>
+        <v>0.01334178283473658</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H13">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I13">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J13">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>43.62333969681976</v>
+        <v>66.84970051780333</v>
       </c>
       <c r="R13">
-        <v>43.62333969681976</v>
+        <v>601.6473046602299</v>
       </c>
       <c r="S13">
-        <v>0.04373904171353415</v>
+        <v>0.05998155051579795</v>
       </c>
       <c r="T13">
-        <v>0.04373904171353415</v>
+        <v>0.05998155051579795</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H14">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I14">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J14">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>48.28356980341605</v>
+        <v>73.81238369768667</v>
       </c>
       <c r="R14">
-        <v>48.28356980341605</v>
+        <v>664.31145327918</v>
       </c>
       <c r="S14">
-        <v>0.0484116321305843</v>
+        <v>0.0662288863998001</v>
       </c>
       <c r="T14">
-        <v>0.0484116321305843</v>
+        <v>0.0662288863998001</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H15">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I15">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J15">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>41.57311819489791</v>
+        <v>65.75374405803267</v>
       </c>
       <c r="R15">
-        <v>41.57311819489791</v>
+        <v>591.783696522294</v>
       </c>
       <c r="S15">
-        <v>0.04168338241697916</v>
+        <v>0.05899819281567868</v>
       </c>
       <c r="T15">
-        <v>0.04168338241697916</v>
+        <v>0.05899819281567868</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H16">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I16">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J16">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>7.006950262255038</v>
+        <v>11.77278051834867</v>
       </c>
       <c r="R16">
-        <v>7.006950262255038</v>
+        <v>105.955024665138</v>
       </c>
       <c r="S16">
-        <v>0.007025534769585171</v>
+        <v>0.01056324297495801</v>
       </c>
       <c r="T16">
-        <v>0.007025534769585171</v>
+        <v>0.01056324297495801</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.442765929902215</v>
+        <v>0.4477083333333334</v>
       </c>
       <c r="H17">
-        <v>0.442765929902215</v>
+        <v>1.343125</v>
       </c>
       <c r="I17">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="J17">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>7.502180029638486</v>
+        <v>8.229988140208333</v>
       </c>
       <c r="R17">
-        <v>7.502180029638486</v>
+        <v>74.06989326187501</v>
       </c>
       <c r="S17">
-        <v>0.007522078032982943</v>
+        <v>0.007384437709557976</v>
       </c>
       <c r="T17">
-        <v>0.007522078032982943</v>
+        <v>0.007384437709557975</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.442765929902215</v>
+        <v>0.4477083333333334</v>
       </c>
       <c r="H18">
-        <v>0.442765929902215</v>
+        <v>1.343125</v>
       </c>
       <c r="I18">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="J18">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>36.37590607976442</v>
+        <v>37.00011126631944</v>
       </c>
       <c r="R18">
-        <v>36.37590607976442</v>
+        <v>333.001001396875</v>
       </c>
       <c r="S18">
-        <v>0.03647238575606828</v>
+        <v>0.03319871331988745</v>
       </c>
       <c r="T18">
-        <v>0.03647238575606828</v>
+        <v>0.03319871331988745</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.442765929902215</v>
+        <v>0.4477083333333334</v>
       </c>
       <c r="H19">
-        <v>0.442765929902215</v>
+        <v>1.343125</v>
       </c>
       <c r="I19">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="J19">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>40.26190137140863</v>
+        <v>40.85383163263889</v>
       </c>
       <c r="R19">
-        <v>40.26190137140863</v>
+        <v>367.6844846937501</v>
       </c>
       <c r="S19">
-        <v>0.04036868785813349</v>
+        <v>0.03665650177721329</v>
       </c>
       <c r="T19">
-        <v>0.04036868785813349</v>
+        <v>0.03665650177721329</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.442765929902215</v>
+        <v>0.4477083333333334</v>
       </c>
       <c r="H20">
-        <v>0.442765929902215</v>
+        <v>1.343125</v>
       </c>
       <c r="I20">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="J20">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>34.66630142053977</v>
+        <v>36.39351900576389</v>
       </c>
       <c r="R20">
-        <v>34.66630142053977</v>
+        <v>327.541671051875</v>
       </c>
       <c r="S20">
-        <v>0.03475824671895714</v>
+        <v>0.03265444245498934</v>
       </c>
       <c r="T20">
-        <v>0.03475824671895714</v>
+        <v>0.03265444245498934</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.442765929902215</v>
+        <v>0.4477083333333334</v>
       </c>
       <c r="H21">
-        <v>0.442765929902215</v>
+        <v>1.343125</v>
       </c>
       <c r="I21">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="J21">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N21">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q21">
-        <v>5.842839324471794</v>
+        <v>6.516023044513889</v>
       </c>
       <c r="R21">
-        <v>5.842839324471794</v>
+        <v>58.64420740062501</v>
       </c>
       <c r="S21">
-        <v>0.005858336264822486</v>
+        <v>0.005846565689587872</v>
       </c>
       <c r="T21">
-        <v>0.005858336264822486</v>
+        <v>0.005846565689587871</v>
       </c>
     </row>
   </sheetData>
